--- a/fichiers_xls/test_copie.xlsx
+++ b/fichiers_xls/test_copie.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +26,70 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF969696"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF00FF"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC00"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF993300"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +104,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI14"/>
+  <dimension ref="A1:DJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,4971 +491,5610 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Nom</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Prénom</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Adresse de courriel</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>État</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Temps utilisé</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Note/10,00</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Réponse 1</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Réponse 2</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Les chromosomes du père déterminent si le bébé est un garçon ou une fille</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q1</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>L’être humain s’est développé à partir d’espèces animales plus anciennes</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q2</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les continents se déplacent depuis des millions d’années et continueront à se déplacer dans le futur </t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q3</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Les lasers fonctionnent en faisant converger des ondes sonores</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q4</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les antibiotiques tuent les virus ainsi que les bactéries </t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q5</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Les électrons sont plus petits que les atomes</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q6</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Toute radioactivité résulte de l’action de l’homme</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q7</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">  La Terre fait le tour du Soleil en un mois</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q8</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Les premiers êtres humains vivaient à la même époque que les dinosaures</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q9</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="3" t="inlineStr">
         <is>
           <t>Le lait radioactif peut être rendu sain en le faisant bouillir</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q10</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">  Le Soleil tourne autour de la Terre</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q11</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">  L’oxygène que nous respirons vient des plantes</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q12</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre de la Terre est très chaud </t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AK1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q13</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AL1" s="3" t="inlineStr">
         <is>
           <t>Laquelle ou lesquelles de ces questions peu(ven)t être testée(s) scientifiquement ?</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AM1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q14</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AN1" s="4" t="inlineStr">
         <is>
           <t>sous-score Q1 à Q14</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AO1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pouvez-vous citer le nom d'un programme d'envergure internationale ayant pour but la détection des ondes gravitationnelles ? </t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AP1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q15</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AQ1" s="4" t="inlineStr">
         <is>
           <t>sous-score Q15</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AR1" s="2" t="inlineStr">
         <is>
           <t>Réponse 5</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="3" t="inlineStr">
         <is>
           <t>Des différences de fonctionnement du cerveau entre des bébés filles et des bébés garçons permettent de conclure que ces différences sont génétiques</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AT1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q16</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AU1" s="3" t="inlineStr">
         <is>
           <t>Faire de la recherche scientifique nécessite de faire des expériences en laboratoire</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AV1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q17</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AW1" s="3" t="inlineStr">
         <is>
           <t>Il est probable que la Terre soit plate</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AX1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q18</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AY1" s="3" t="inlineStr">
         <is>
           <t>L’objectif de la biologie de synthèse est de créer des systèmes biologiques nouveaux</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="AZ1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q19</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BA1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">  La lumière et l’espace-temps s’influencent mutuellement. C’est ce qu’explique la théorie de la relativité générale</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BB1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q20</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BC1" s="3" t="inlineStr">
         <is>
           <t>L’appareil de mesure permettant la détection des ondes gravitationnelles est appelé un spectromètre</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BD1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q21</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BE1" s="3" t="inlineStr">
         <is>
           <t>L’intelligence d’une personne est directement corrélée au poids de son cerveau</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BF1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q22</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BG1" s="3" t="inlineStr">
         <is>
           <t>La Terre tourne sur elle-même en 24 heures</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BH1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q23</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="BI1" s="3" t="inlineStr">
         <is>
           <t>Le cerveau a une activité électrique</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="BJ1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q24</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="BK1" s="3" t="inlineStr">
         <is>
           <t>Notre système solaire est constitué de planètes gravitant autour du Soleil</t>
         </is>
       </c>
-      <c r="BL1" t="inlineStr">
+      <c r="BL1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q25</t>
         </is>
       </c>
-      <c r="BM1" t="inlineStr">
+      <c r="BM1" s="3" t="inlineStr">
         <is>
           <t>On ne peut pas techniquement créer d’entités vivantes qui sont des hybrides humain-animal</t>
         </is>
       </c>
-      <c r="BN1" t="inlineStr">
+      <c r="BN1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q26</t>
         </is>
       </c>
-      <c r="BO1" t="inlineStr">
+      <c r="BO1" s="3" t="inlineStr">
         <is>
           <t>Le cerveau est constitué uniquement de neurones</t>
         </is>
       </c>
-      <c r="BP1" t="inlineStr">
+      <c r="BP1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q27</t>
         </is>
       </c>
-      <c r="BQ1" t="inlineStr">
+      <c r="BQ1" s="3" t="inlineStr">
         <is>
           <t>On peut aujourd’hui équiper des humains de prothèses qui augmentent fortement leurs performances ou ajoutent des fonctionnalités nouvelles qui ne sont pas naturellement possibles</t>
         </is>
       </c>
-      <c r="BR1" t="inlineStr">
+      <c r="BR1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q28</t>
         </is>
       </c>
-      <c r="BS1" t="inlineStr">
+      <c r="BS1" s="3" t="inlineStr">
         <is>
           <t>Le fait que plus de femmes exercent des emplois de secrétaires est directement lié au fonctionnement du cerveau des femmes</t>
         </is>
       </c>
-      <c r="BT1" t="inlineStr">
+      <c r="BT1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q29</t>
         </is>
       </c>
-      <c r="BU1" t="inlineStr">
+      <c r="BU1" s="3" t="inlineStr">
         <is>
           <t>Une onde peut se caractériser par une fréquence et une amplitude</t>
         </is>
       </c>
-      <c r="BV1" t="inlineStr">
+      <c r="BV1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q30</t>
         </is>
       </c>
-      <c r="BW1" t="inlineStr">
+      <c r="BW1" s="3" t="inlineStr">
         <is>
           <t>Si à un test de mathématiques, un groupe de femmes est meilleur qu’un groupe d’hommes, peut-on en conclure que les femmes sont meilleures en mathématiques que les hommes ?</t>
         </is>
       </c>
-      <c r="BX1" t="inlineStr">
+      <c r="BX1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q31</t>
         </is>
       </c>
-      <c r="BY1" t="inlineStr">
+      <c r="BY1" s="3" t="inlineStr">
         <is>
           <t>Sciences et techniques peuvent résoudre tous les problèmes</t>
         </is>
       </c>
-      <c r="BZ1" t="inlineStr">
+      <c r="BZ1" s="3" t="inlineStr">
         <is>
           <t>accuracy_Q32</t>
         </is>
       </c>
-      <c r="CA1" t="inlineStr">
+      <c r="CA1" s="4" t="inlineStr">
         <is>
           <t>sous-score Q16 à Q32</t>
         </is>
       </c>
-      <c r="CB1" t="inlineStr">
+      <c r="CB1" s="4" t="inlineStr">
         <is>
           <t>SCORE_TOTAL</t>
         </is>
       </c>
+      <c r="CC1" s="1" t="n"/>
+      <c r="CD1" s="1" t="n"/>
+      <c r="CE1" s="1" t="n"/>
+      <c r="CF1" s="1" t="n"/>
+      <c r="CG1" s="1" t="n"/>
+      <c r="CH1" s="1" t="n"/>
+      <c r="CI1" s="1" t="n"/>
+      <c r="CJ1" s="1" t="n"/>
+      <c r="CK1" s="1" t="n"/>
+      <c r="CL1" s="1" t="n"/>
+      <c r="CM1" s="1" t="n"/>
+      <c r="CN1" s="1" t="n"/>
+      <c r="CO1" s="1" t="n"/>
+      <c r="CP1" s="1" t="n"/>
+      <c r="CQ1" s="1" t="n"/>
+      <c r="CR1" s="1" t="n"/>
+      <c r="CS1" s="1" t="n"/>
+      <c r="CT1" s="1" t="n"/>
+      <c r="CU1" s="1" t="n"/>
+      <c r="CV1" s="1" t="n"/>
+      <c r="CW1" s="1" t="n"/>
+      <c r="CX1" s="1" t="n"/>
+      <c r="CY1" s="1" t="n"/>
+      <c r="CZ1" s="1" t="n"/>
+      <c r="DA1" s="1" t="n"/>
+      <c r="DB1" s="1" t="n"/>
+      <c r="DC1" s="1" t="n"/>
+      <c r="DD1" s="1" t="n"/>
+      <c r="DE1" s="1" t="n"/>
+      <c r="DF1" s="1" t="n"/>
+      <c r="DG1" s="1" t="n"/>
+      <c r="DH1" s="1" t="n"/>
+      <c r="DI1" s="1" t="n"/>
+      <c r="DJ1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Aatif Mieulet</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Paola</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>paola.aatif-mieulet@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>8 min 33 s</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="U2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="W2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Y2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AA2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AC2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AE2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AG2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AI2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AK2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
         <is>
           <t>La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
+      <c r="AM2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AO2" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AP2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AS2" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AT2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AV2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY2" t="inlineStr">
+      <c r="AX2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="inlineStr">
+      <c r="AZ2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="inlineStr">
+      <c r="BB2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="inlineStr">
+      <c r="BD2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="inlineStr">
+      <c r="BF2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="inlineStr">
+      <c r="BH2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="inlineStr">
+      <c r="BJ2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="inlineStr">
+      <c r="BL2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="inlineStr">
+      <c r="BN2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="inlineStr">
+      <c r="BP2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="inlineStr">
+      <c r="BR2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="inlineStr">
+      <c r="BT2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW2" t="inlineStr">
+      <c r="BV2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="inlineStr">
+      <c r="BX2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
+      <c r="BZ2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CB2" s="4" t="n">
         <v>22</v>
       </c>
+      <c r="CC2" s="1" t="n"/>
+      <c r="CD2" s="1" t="n"/>
+      <c r="CE2" s="1" t="n"/>
+      <c r="CF2" s="1" t="n"/>
+      <c r="CG2" s="1" t="n"/>
+      <c r="CH2" s="1" t="n"/>
+      <c r="CI2" s="1" t="n"/>
+      <c r="CJ2" s="1" t="n"/>
+      <c r="CK2" s="1" t="n"/>
+      <c r="CL2" s="1" t="n"/>
+      <c r="CM2" s="1" t="n"/>
+      <c r="CN2" s="1" t="n"/>
+      <c r="CO2" s="1" t="n"/>
+      <c r="CP2" s="1" t="n"/>
+      <c r="CQ2" s="1" t="n"/>
+      <c r="CR2" s="1" t="n"/>
+      <c r="CS2" s="1" t="n"/>
+      <c r="CT2" s="1" t="n"/>
+      <c r="CU2" s="1" t="n"/>
+      <c r="CV2" s="1" t="n"/>
+      <c r="CW2" s="1" t="n"/>
+      <c r="CX2" s="1" t="n"/>
+      <c r="CY2" s="1" t="n"/>
+      <c r="CZ2" s="1" t="n"/>
+      <c r="DA2" s="1" t="n"/>
+      <c r="DB2" s="1" t="n"/>
+      <c r="DC2" s="1" t="n"/>
+      <c r="DD2" s="1" t="n"/>
+      <c r="DE2" s="1" t="n"/>
+      <c r="DF2" s="1" t="n"/>
+      <c r="DG2" s="1" t="n"/>
+      <c r="DH2" s="1" t="n"/>
+      <c r="DI2" s="1" t="n"/>
+      <c r="DJ2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Abbas</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Zina</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>zina.abbas@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>5 min 15 s</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>7,28</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai; partie 4 : Faux; partie 5 : Faux; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Faux</t>
         </is>
       </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="inlineStr">
+      <c r="S3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="inlineStr">
+      <c r="U3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="W3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Y3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AA3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AE3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AG3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AI3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AK3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; Combien de girafes vivent en Afrique ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
+      <c r="AM3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AO3" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AP3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas; partie 2 : Vrai; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AS3" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AT3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="inlineStr">
+      <c r="AV3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY3" t="inlineStr">
+      <c r="AX3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="inlineStr">
+      <c r="AZ3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="inlineStr">
+      <c r="BB3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BD3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG3" t="inlineStr">
+      <c r="BF3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI3" t="inlineStr">
+      <c r="BH3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK3" t="inlineStr">
+      <c r="BJ3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM3" t="inlineStr">
+      <c r="BL3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="inlineStr">
+      <c r="BN3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="BP3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" t="inlineStr">
+      <c r="BR3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU3" t="inlineStr">
+      <c r="BT3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW3" t="inlineStr">
+      <c r="BV3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY3" t="inlineStr">
+      <c r="BX3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA3" t="n">
+      <c r="BZ3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CB3" s="4" t="n">
         <v>24</v>
       </c>
+      <c r="CC3" s="1" t="n"/>
+      <c r="CD3" s="1" t="n"/>
+      <c r="CE3" s="1" t="n"/>
+      <c r="CF3" s="1" t="n"/>
+      <c r="CG3" s="1" t="n"/>
+      <c r="CH3" s="1" t="n"/>
+      <c r="CI3" s="1" t="n"/>
+      <c r="CJ3" s="1" t="n"/>
+      <c r="CK3" s="1" t="n"/>
+      <c r="CL3" s="1" t="n"/>
+      <c r="CM3" s="1" t="n"/>
+      <c r="CN3" s="1" t="n"/>
+      <c r="CO3" s="1" t="n"/>
+      <c r="CP3" s="1" t="n"/>
+      <c r="CQ3" s="1" t="n"/>
+      <c r="CR3" s="1" t="n"/>
+      <c r="CS3" s="1" t="n"/>
+      <c r="CT3" s="1" t="n"/>
+      <c r="CU3" s="1" t="n"/>
+      <c r="CV3" s="1" t="n"/>
+      <c r="CW3" s="1" t="n"/>
+      <c r="CX3" s="1" t="n"/>
+      <c r="CY3" s="1" t="n"/>
+      <c r="CZ3" s="1" t="n"/>
+      <c r="DA3" s="1" t="n"/>
+      <c r="DB3" s="1" t="n"/>
+      <c r="DC3" s="1" t="n"/>
+      <c r="DD3" s="1" t="n"/>
+      <c r="DE3" s="1" t="n"/>
+      <c r="DF3" s="1" t="n"/>
+      <c r="DG3" s="1" t="n"/>
+      <c r="DH3" s="1" t="n"/>
+      <c r="DI3" s="1" t="n"/>
+      <c r="DJ3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Abdallah</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Aboubaker</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>aboubaker.abdallah@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>7 min 57 s</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>7,98</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai; partie 4 : Faux; partie 5 : Faux; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="O4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Faux</t>
         </is>
       </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="S4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="inlineStr">
+      <c r="U4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="W4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Y4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AA4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AC4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AE4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AG4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AI4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AK4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="inlineStr">
         <is>
           <t>La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
+      <c r="AM4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AO4" s="6" t="inlineStr">
         <is>
           <t>LISA</t>
         </is>
       </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AP4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Faux; partie 3 : Faux; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Oui</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AS4" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
       </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AT4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="AV4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" t="inlineStr">
+      <c r="AV4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AX4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" t="inlineStr">
+      <c r="AZ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" t="inlineStr">
+      <c r="BB4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BD4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG4" t="inlineStr">
+      <c r="BF4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BH4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK4" t="inlineStr">
+      <c r="BJ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BL4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="BN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO4" t="inlineStr">
+      <c r="BN4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="BP4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS4" t="inlineStr">
+      <c r="BR4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU4" t="inlineStr">
+      <c r="BT4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW4" t="inlineStr">
+      <c r="BV4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY4" t="inlineStr">
+      <c r="BX4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Oui</t>
         </is>
       </c>
-      <c r="BZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" t="n">
+      <c r="BZ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CB4" s="4" t="n">
         <v>27</v>
       </c>
+      <c r="CC4" s="1" t="n"/>
+      <c r="CD4" s="1" t="n"/>
+      <c r="CE4" s="1" t="n"/>
+      <c r="CF4" s="1" t="n"/>
+      <c r="CG4" s="1" t="n"/>
+      <c r="CH4" s="1" t="n"/>
+      <c r="CI4" s="1" t="n"/>
+      <c r="CJ4" s="1" t="n"/>
+      <c r="CK4" s="1" t="n"/>
+      <c r="CL4" s="1" t="n"/>
+      <c r="CM4" s="1" t="n"/>
+      <c r="CN4" s="1" t="n"/>
+      <c r="CO4" s="1" t="n"/>
+      <c r="CP4" s="1" t="n"/>
+      <c r="CQ4" s="1" t="n"/>
+      <c r="CR4" s="1" t="n"/>
+      <c r="CS4" s="1" t="n"/>
+      <c r="CT4" s="1" t="n"/>
+      <c r="CU4" s="1" t="n"/>
+      <c r="CV4" s="1" t="n"/>
+      <c r="CW4" s="1" t="n"/>
+      <c r="CX4" s="1" t="n"/>
+      <c r="CY4" s="1" t="n"/>
+      <c r="CZ4" s="1" t="n"/>
+      <c r="DA4" s="1" t="n"/>
+      <c r="DB4" s="1" t="n"/>
+      <c r="DC4" s="1" t="n"/>
+      <c r="DD4" s="1" t="n"/>
+      <c r="DE4" s="1" t="n"/>
+      <c r="DF4" s="1" t="n"/>
+      <c r="DG4" s="1" t="n"/>
+      <c r="DH4" s="1" t="n"/>
+      <c r="DI4" s="1" t="n"/>
+      <c r="DJ4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Abdel Moneim</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>yasmine.abdel-moneim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>7 min 22 s</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Faux; partie 3 : Vrai; partie 4 : Faux; partie 5 : Faux; partie 6 : Faux; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Faux</t>
         </is>
       </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="S5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="U5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="W5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Y5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AA5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AG5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AI5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AK5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="1" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="n">
+      <c r="AM5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AO5" s="1" t="inlineStr">
         <is>
           <t>Je ne sais pas</t>
         </is>
       </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AP5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Faux; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AS5" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AT5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="inlineStr">
+      <c r="AV5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY5" t="inlineStr">
+      <c r="AX5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Faux</t>
         </is>
       </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="inlineStr">
+      <c r="AZ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="inlineStr">
+      <c r="BB5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE5" t="inlineStr">
+      <c r="BD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG5" t="inlineStr">
+      <c r="BF5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI5" t="inlineStr">
+      <c r="BH5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK5" t="inlineStr">
+      <c r="BJ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM5" t="inlineStr">
+      <c r="BL5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="BN5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO5" t="inlineStr">
+      <c r="BN5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ5" t="inlineStr">
+      <c r="BP5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS5" t="inlineStr">
+      <c r="BR5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU5" t="inlineStr">
+      <c r="BT5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW5" t="inlineStr">
+      <c r="BV5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY5" t="inlineStr">
+      <c r="BX5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA5" t="n">
+      <c r="BZ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CB5" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="CC5" t="inlineStr">
+      <c r="CC5" s="3" t="inlineStr">
         <is>
           <t>score</t>
         </is>
       </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF5" t="n">
+      <c r="CD5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CG5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CH5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CI5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CJ5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CK5" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CL5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="CM5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="CN5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="CO5" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CP5" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CQ5" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CR5" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="CS5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="CT5" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="CU5" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="CV5" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="CW5" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="CX5" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="CY5" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="CZ5" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DA5" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DB5" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DC5" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DD5" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DE5" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DF5" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DG5" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DH5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DI5" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="DJ5" s="1" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Abdelali</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>Yasmine</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>yasmine.abdelali@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>7 min 44 s</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Faux; partie 6 : Vrai; partie 7 : Vrai; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="Q6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="inlineStr">
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="inlineStr">
+      <c r="U6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="W6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Y6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AA6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AC6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AE6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AG6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AI6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AK6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; Combien de girafes vivent en Afrique ?</t>
         </is>
       </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
+      <c r="AM6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AO6" s="1" t="inlineStr">
         <is>
           <t>NASA</t>
         </is>
       </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AP6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Faux; partie 3 : Faux; partie 4 : Vrai; partie 5 : Je ne sais pas; partie 6 : Vrai; partie 7 : Faux; partie 8 : Vrai; partie 9 : Faux; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AS6" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" t="inlineStr">
+      <c r="AT6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="AV6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" t="inlineStr">
+      <c r="AV6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" t="inlineStr">
+      <c r="AX6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" t="inlineStr">
+      <c r="AZ6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="inlineStr">
+      <c r="BB6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="BD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="inlineStr">
+      <c r="BD6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" t="inlineStr">
+      <c r="BF6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI6" t="inlineStr">
+      <c r="BH6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="inlineStr">
+      <c r="BJ6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM6" t="inlineStr">
+      <c r="BL6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="BN6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO6" t="inlineStr">
+      <c r="BN6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ6" t="inlineStr">
+      <c r="BP6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" t="inlineStr">
+      <c r="BR6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" t="inlineStr">
+      <c r="BT6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" t="inlineStr">
+      <c r="BV6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY6" t="inlineStr">
+      <c r="BX6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA6" t="n">
+      <c r="BZ6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CB6" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="CC6" t="inlineStr">
+      <c r="CC6" s="3" t="inlineStr">
         <is>
           <t>nombre</t>
         </is>
       </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP6" t="n">
+      <c r="CD6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CQ6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CR6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="CS6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI6" t="n">
+      <c r="CS6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Abdelgow</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Hassan Mahamat</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>hassan-mahamat.abdelgow@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>23 min 37 s</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>7,52</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Je ne sais pas; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="inlineStr">
+      <c r="S7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="inlineStr">
+      <c r="U7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="W7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Y7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AA7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AC7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AE7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AG7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AI7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AK7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="1" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="n">
+      <c r="AM7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AO7" s="1" t="inlineStr">
         <is>
           <t>Virgo</t>
         </is>
       </c>
-      <c r="AP7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AP7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Je ne sais pas; partie 4 : Vrai; partie 5 : Faux; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Faux; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AS7" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" t="inlineStr">
+      <c r="AT7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="inlineStr">
+      <c r="AV7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="inlineStr">
+      <c r="AX7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" t="inlineStr">
+      <c r="AZ7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="BB7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" t="inlineStr">
+      <c r="BB7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" t="inlineStr">
+      <c r="BD7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" t="inlineStr">
+      <c r="BF7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI7" t="inlineStr">
+      <c r="BH7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" t="inlineStr">
+      <c r="BJ7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM7" t="inlineStr">
+      <c r="BL7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="inlineStr">
+      <c r="BN7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ7" t="inlineStr">
+      <c r="BP7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Faux</t>
         </is>
       </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="inlineStr">
+      <c r="BR7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU7" t="inlineStr">
+      <c r="BT7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW7" t="inlineStr">
+      <c r="BV7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY7" t="inlineStr">
+      <c r="BX7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA7" t="n">
+      <c r="BZ7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CB7" s="4" t="n">
         <v>22</v>
       </c>
+      <c r="CC7" s="1" t="n"/>
+      <c r="CD7" s="1" t="n"/>
+      <c r="CE7" s="1" t="n"/>
+      <c r="CF7" s="1" t="n"/>
+      <c r="CG7" s="1" t="n"/>
+      <c r="CH7" s="1" t="n"/>
+      <c r="CI7" s="1" t="n"/>
+      <c r="CJ7" s="1" t="n"/>
+      <c r="CK7" s="1" t="n"/>
+      <c r="CL7" s="1" t="n"/>
+      <c r="CM7" s="1" t="n"/>
+      <c r="CN7" s="1" t="n"/>
+      <c r="CO7" s="1" t="n"/>
+      <c r="CP7" s="1" t="n"/>
+      <c r="CQ7" s="1" t="n"/>
+      <c r="CR7" s="1" t="n"/>
+      <c r="CS7" s="1" t="n"/>
+      <c r="CT7" s="1" t="n"/>
+      <c r="CU7" s="1" t="n"/>
+      <c r="CV7" s="1" t="n"/>
+      <c r="CW7" s="1" t="n"/>
+      <c r="CX7" s="1" t="n"/>
+      <c r="CY7" s="1" t="n"/>
+      <c r="CZ7" s="1" t="n"/>
+      <c r="DA7" s="1" t="n"/>
+      <c r="DB7" s="1" t="n"/>
+      <c r="DC7" s="1" t="n"/>
+      <c r="DD7" s="1" t="n"/>
+      <c r="DE7" s="1" t="n"/>
+      <c r="DF7" s="1" t="n"/>
+      <c r="DG7" s="1" t="n"/>
+      <c r="DH7" s="1" t="n"/>
+      <c r="DI7" s="1" t="n"/>
+      <c r="DJ7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Abdelhadi</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>Nouh</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>nouh.abdelhadi@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>9 min 27 s</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>7,35</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Faux; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Faux; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="Q8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="inlineStr">
+      <c r="S8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="inlineStr">
+      <c r="U8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="W8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Y8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AA8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AC8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AE8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AG8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AI8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AK8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="1" t="inlineStr">
         <is>
           <t>La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
+      <c r="AM8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AO8" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AP8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Vrai; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AS8" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU8" t="inlineStr">
+      <c r="AT8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="inlineStr">
+      <c r="AV8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY8" t="inlineStr">
+      <c r="AX8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA8" t="inlineStr">
+      <c r="AZ8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="inlineStr">
+      <c r="BB8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE8" t="inlineStr">
+      <c r="BD8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG8" t="inlineStr">
+      <c r="BF8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI8" t="inlineStr">
+      <c r="BH8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" t="inlineStr">
+      <c r="BJ8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM8" t="inlineStr">
+      <c r="BL8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="inlineStr">
+      <c r="BN8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="inlineStr">
+      <c r="BP8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS8" t="inlineStr">
+      <c r="BR8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU8" t="inlineStr">
+      <c r="BT8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" t="inlineStr">
+      <c r="BV8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" t="inlineStr">
+      <c r="BX8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" t="n">
+      <c r="BZ8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CB8" s="4" t="n">
         <v>24</v>
       </c>
+      <c r="CC8" s="1" t="n"/>
+      <c r="CD8" s="1" t="n"/>
+      <c r="CE8" s="1" t="n"/>
+      <c r="CF8" s="1" t="n"/>
+      <c r="CG8" s="1" t="n"/>
+      <c r="CH8" s="1" t="n"/>
+      <c r="CI8" s="1" t="n"/>
+      <c r="CJ8" s="1" t="n"/>
+      <c r="CK8" s="1" t="n"/>
+      <c r="CL8" s="1" t="n"/>
+      <c r="CM8" s="1" t="n"/>
+      <c r="CN8" s="1" t="n"/>
+      <c r="CO8" s="1" t="n"/>
+      <c r="CP8" s="1" t="n"/>
+      <c r="CQ8" s="1" t="n"/>
+      <c r="CR8" s="1" t="n"/>
+      <c r="CS8" s="1" t="n"/>
+      <c r="CT8" s="1" t="n"/>
+      <c r="CU8" s="1" t="n"/>
+      <c r="CV8" s="1" t="n"/>
+      <c r="CW8" s="1" t="n"/>
+      <c r="CX8" s="1" t="n"/>
+      <c r="CY8" s="1" t="n"/>
+      <c r="CZ8" s="1" t="n"/>
+      <c r="DA8" s="1" t="n"/>
+      <c r="DB8" s="1" t="n"/>
+      <c r="DC8" s="1" t="n"/>
+      <c r="DD8" s="1" t="n"/>
+      <c r="DE8" s="1" t="n"/>
+      <c r="DF8" s="1" t="n"/>
+      <c r="DG8" s="1" t="n"/>
+      <c r="DH8" s="1" t="n"/>
+      <c r="DI8" s="1" t="n"/>
+      <c r="DJ8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Abdelkarim</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>Yacine</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>yacine.abdelkarim@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>4 min 17 s</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>8,07</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Vrai; partie 4 : Faux; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="O9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Faux</t>
         </is>
       </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="S9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="inlineStr">
+      <c r="U9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="W9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="Y9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AA9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AC9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AE9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AG9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AI9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AK9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="1" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; Combien de girafes vivent en Afrique ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
+      <c r="AM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AO9" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas; partie 2 : Faux; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Je ne sais pas; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AS9" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="inlineStr">
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="AV9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW9" t="inlineStr">
+      <c r="AV9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY9" t="inlineStr">
+      <c r="AX9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="inlineStr">
+      <c r="AZ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="BB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="inlineStr">
+      <c r="BB9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE9" t="inlineStr">
+      <c r="BD9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG9" t="inlineStr">
+      <c r="BF9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI9" t="inlineStr">
+      <c r="BH9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK9" t="inlineStr">
+      <c r="BJ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM9" t="inlineStr">
+      <c r="BL9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="BN9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO9" t="inlineStr">
+      <c r="BN9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ9" t="inlineStr">
+      <c r="BP9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS9" t="inlineStr">
+      <c r="BR9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU9" t="inlineStr">
+      <c r="BT9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW9" t="inlineStr">
+      <c r="BV9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY9" t="inlineStr">
+      <c r="BX9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA9" t="n">
+      <c r="BZ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA9" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CB9" s="4" t="n">
         <v>25</v>
       </c>
+      <c r="CC9" s="1" t="n"/>
+      <c r="CD9" s="1" t="n"/>
+      <c r="CE9" s="1" t="n"/>
+      <c r="CF9" s="1" t="n"/>
+      <c r="CG9" s="1" t="n"/>
+      <c r="CH9" s="1" t="n"/>
+      <c r="CI9" s="1" t="n"/>
+      <c r="CJ9" s="1" t="n"/>
+      <c r="CK9" s="1" t="n"/>
+      <c r="CL9" s="1" t="n"/>
+      <c r="CM9" s="1" t="n"/>
+      <c r="CN9" s="1" t="n"/>
+      <c r="CO9" s="1" t="n"/>
+      <c r="CP9" s="1" t="n"/>
+      <c r="CQ9" s="1" t="n"/>
+      <c r="CR9" s="1" t="n"/>
+      <c r="CS9" s="1" t="n"/>
+      <c r="CT9" s="1" t="n"/>
+      <c r="CU9" s="1" t="n"/>
+      <c r="CV9" s="1" t="n"/>
+      <c r="CW9" s="1" t="n"/>
+      <c r="CX9" s="1" t="n"/>
+      <c r="CY9" s="1" t="n"/>
+      <c r="CZ9" s="1" t="n"/>
+      <c r="DA9" s="1" t="n"/>
+      <c r="DB9" s="1" t="n"/>
+      <c r="DC9" s="1" t="n"/>
+      <c r="DD9" s="1" t="n"/>
+      <c r="DE9" s="1" t="n"/>
+      <c r="DF9" s="1" t="n"/>
+      <c r="DG9" s="1" t="n"/>
+      <c r="DH9" s="1" t="n"/>
+      <c r="DI9" s="1" t="n"/>
+      <c r="DJ9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Abdenbaoui</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>Iness</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>iness.abdenbaoui@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>10 min 33 s</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Je ne sais pas; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="Q10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="inlineStr">
+      <c r="S10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="inlineStr">
+      <c r="U10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="W10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="Y10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AA10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AC10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AE10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AG10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AI10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AK10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="1" t="inlineStr">
         <is>
           <t>Combien de girafes vivent en Afrique ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
+      <c r="AM10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AO10" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AP10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Faux; partie 3 : Faux; partie 4 : Je ne sais pas; partie 5 : Je ne sais pas; partie 6 : Vrai; partie 7 : Faux; partie 8 : Vrai; partie 9 : Faux; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Vrai; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AS10" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU10" t="inlineStr">
+      <c r="AT10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="AV10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW10" t="inlineStr">
+      <c r="AV10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY10" t="inlineStr">
+      <c r="AX10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="inlineStr">
+      <c r="AZ10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="inlineStr">
+      <c r="BB10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="inlineStr">
+      <c r="BD10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG10" t="inlineStr">
+      <c r="BF10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI10" t="inlineStr">
+      <c r="BH10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="inlineStr">
+      <c r="BJ10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM10" t="inlineStr">
+      <c r="BL10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="inlineStr">
+      <c r="BN10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="inlineStr">
+      <c r="BP10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS10" t="inlineStr">
+      <c r="BR10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU10" t="inlineStr">
+      <c r="BT10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW10" t="inlineStr">
+      <c r="BV10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY10" t="inlineStr">
+      <c r="BX10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA10" t="n">
+      <c r="BZ10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA10" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CB10" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="CC10" t="inlineStr">
+      <c r="CC10" s="1" t="inlineStr">
         <is>
           <t>num question</t>
         </is>
       </c>
-      <c r="CD10" t="inlineStr">
+      <c r="CD10" s="1" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="CE10" t="inlineStr">
+      <c r="CE10" s="1" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="CF10" t="inlineStr">
+      <c r="CF10" s="1" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="CG10" t="inlineStr">
+      <c r="CG10" s="1" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="CH10" t="inlineStr">
+      <c r="CH10" s="1" t="inlineStr">
         <is>
           <t>Q5</t>
         </is>
       </c>
-      <c r="CI10" t="inlineStr">
+      <c r="CI10" s="1" t="inlineStr">
         <is>
           <t>Q6</t>
         </is>
       </c>
-      <c r="CJ10" t="inlineStr">
+      <c r="CJ10" s="1" t="inlineStr">
         <is>
           <t>Q7</t>
         </is>
       </c>
-      <c r="CK10" t="inlineStr">
+      <c r="CK10" s="1" t="inlineStr">
         <is>
           <t>Q8</t>
         </is>
       </c>
-      <c r="CL10" t="inlineStr">
+      <c r="CL10" s="1" t="inlineStr">
         <is>
           <t>Q9</t>
         </is>
       </c>
-      <c r="CM10" t="inlineStr">
+      <c r="CM10" s="1" t="inlineStr">
         <is>
           <t>Q10</t>
         </is>
       </c>
-      <c r="CN10" t="inlineStr">
+      <c r="CN10" s="1" t="inlineStr">
         <is>
           <t>Q11</t>
         </is>
       </c>
-      <c r="CO10" t="inlineStr">
+      <c r="CO10" s="1" t="inlineStr">
         <is>
           <t>Q12</t>
         </is>
       </c>
-      <c r="CP10" t="inlineStr">
+      <c r="CP10" s="1" t="inlineStr">
         <is>
           <t>Q13</t>
         </is>
       </c>
-      <c r="CQ10" t="inlineStr">
+      <c r="CQ10" s="1" t="inlineStr">
         <is>
           <t>Q14</t>
         </is>
       </c>
-      <c r="CR10" t="inlineStr">
+      <c r="CR10" s="1" t="inlineStr">
         <is>
           <t>Q15</t>
         </is>
       </c>
-      <c r="CS10" t="inlineStr">
+      <c r="CS10" s="1" t="inlineStr">
         <is>
           <t>Q16</t>
         </is>
       </c>
-      <c r="CT10" t="inlineStr">
+      <c r="CT10" s="1" t="inlineStr">
         <is>
           <t>Q17</t>
         </is>
       </c>
-      <c r="CU10" t="inlineStr">
+      <c r="CU10" s="1" t="inlineStr">
         <is>
           <t>Q18</t>
         </is>
       </c>
-      <c r="CV10" t="inlineStr">
+      <c r="CV10" s="1" t="inlineStr">
         <is>
           <t>Q19</t>
         </is>
       </c>
-      <c r="CW10" t="inlineStr">
+      <c r="CW10" s="1" t="inlineStr">
         <is>
           <t>Q20</t>
         </is>
       </c>
-      <c r="CX10" t="inlineStr">
+      <c r="CX10" s="1" t="inlineStr">
         <is>
           <t>Q21</t>
         </is>
       </c>
-      <c r="CY10" t="inlineStr">
+      <c r="CY10" s="1" t="inlineStr">
         <is>
           <t>Q22</t>
         </is>
       </c>
-      <c r="CZ10" t="inlineStr">
+      <c r="CZ10" s="1" t="inlineStr">
         <is>
           <t>Q23</t>
         </is>
       </c>
-      <c r="DA10" t="inlineStr">
+      <c r="DA10" s="1" t="inlineStr">
         <is>
           <t>Q24</t>
         </is>
       </c>
-      <c r="DB10" t="inlineStr">
+      <c r="DB10" s="1" t="inlineStr">
         <is>
           <t>Q25</t>
         </is>
       </c>
-      <c r="DC10" t="inlineStr">
+      <c r="DC10" s="1" t="inlineStr">
         <is>
           <t>Q26</t>
         </is>
       </c>
-      <c r="DD10" t="inlineStr">
+      <c r="DD10" s="1" t="inlineStr">
         <is>
           <t>Q27</t>
         </is>
       </c>
-      <c r="DE10" t="inlineStr">
+      <c r="DE10" s="1" t="inlineStr">
         <is>
           <t>Q28</t>
         </is>
       </c>
-      <c r="DF10" t="inlineStr">
+      <c r="DF10" s="1" t="inlineStr">
         <is>
           <t>Q29</t>
         </is>
       </c>
-      <c r="DG10" t="inlineStr">
+      <c r="DG10" s="1" t="inlineStr">
         <is>
           <t>Q30</t>
         </is>
       </c>
-      <c r="DH10" t="inlineStr">
+      <c r="DH10" s="1" t="inlineStr">
         <is>
           <t>Q31</t>
         </is>
       </c>
-      <c r="DI10" t="inlineStr">
+      <c r="DI10" s="1" t="inlineStr">
         <is>
           <t>Q32</t>
         </is>
       </c>
+      <c r="DJ10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Abdulhoussen</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Houzefa</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>houzefa.abdulhoussen@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>5 min 49 s</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>7,83</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas; partie 2 : Je ne sais pas; partie 3 : Vrai; partie 4 : Faux; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
+      <c r="L11" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="O11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="Q11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Faux</t>
         </is>
       </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="S11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="inlineStr">
+      <c r="U11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="W11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Y11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AA11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AC11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AE11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AG11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AI11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AK11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="1" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="n">
+      <c r="AM11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AO11" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AP11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Vrai; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AS11" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" t="inlineStr">
+      <c r="AT11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="inlineStr">
+      <c r="AV11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY11" t="inlineStr">
+      <c r="AX11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA11" t="inlineStr">
+      <c r="AZ11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="inlineStr">
+      <c r="BB11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE11" t="inlineStr">
+      <c r="BD11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG11" t="inlineStr">
+      <c r="BF11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI11" t="inlineStr">
+      <c r="BH11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" t="inlineStr">
+      <c r="BJ11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM11" t="inlineStr">
+      <c r="BL11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="inlineStr">
+      <c r="BN11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" t="inlineStr">
+      <c r="BP11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" t="inlineStr">
+      <c r="BR11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" t="inlineStr">
+      <c r="BT11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" t="inlineStr">
+      <c r="BV11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" t="inlineStr">
+      <c r="BX11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" t="n">
+      <c r="BZ11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="CB11" t="n">
+      <c r="CB11" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="CC11" t="inlineStr">
+      <c r="CC11" s="1" t="inlineStr">
         <is>
           <t>taux réussite</t>
         </is>
       </c>
-      <c r="CD11" t="n">
+      <c r="CD11" s="8" t="n">
         <v>51.2907608695652</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="CE11" s="9" t="n">
         <v>77.3777173913043</v>
       </c>
-      <c r="CF11" t="n">
+      <c r="CF11" s="9" t="n">
         <v>91.64402173913039</v>
       </c>
-      <c r="CG11" t="n">
+      <c r="CG11" s="8" t="n">
         <v>75.4076086956522</v>
       </c>
-      <c r="CH11" t="n">
+      <c r="CH11" s="10" t="n">
         <v>76.6304347826087</v>
       </c>
-      <c r="CI11" t="n">
+      <c r="CI11" s="8" t="n">
         <v>91.3722826086957</v>
       </c>
-      <c r="CJ11" t="n">
+      <c r="CJ11" s="8" t="n">
         <v>89.1983695652174</v>
       </c>
-      <c r="CK11" t="n">
+      <c r="CK11" s="9" t="n">
         <v>95.991847826087</v>
       </c>
-      <c r="CL11" t="n">
+      <c r="CL11" s="9" t="n">
         <v>94.8369565217391</v>
       </c>
-      <c r="CM11" t="n">
+      <c r="CM11" s="8" t="n">
         <v>87.5</v>
       </c>
-      <c r="CN11" t="n">
+      <c r="CN11" s="9" t="n">
         <v>94.36141304347829</v>
       </c>
-      <c r="CO11" t="n">
+      <c r="CO11" s="8" t="n">
         <v>79.5516304347826</v>
       </c>
-      <c r="CP11" t="n">
+      <c r="CP11" s="9" t="n">
         <v>95.92391304347829</v>
       </c>
-      <c r="CQ11" t="n">
+      <c r="CQ11" s="10" t="n">
         <v>48.9809782608696</v>
       </c>
-      <c r="CR11" t="n">
+      <c r="CR11" s="10" t="n">
         <v>34.7146739130435</v>
       </c>
-      <c r="CS11" t="n">
+      <c r="CS11" s="10" t="n">
         <v>57.6086956521739</v>
       </c>
-      <c r="CT11" t="n">
+      <c r="CT11" s="10" t="n">
         <v>66.16847826086961</v>
       </c>
-      <c r="CU11" t="n">
+      <c r="CU11" s="9" t="n">
         <v>96.0597826086957</v>
       </c>
-      <c r="CV11" t="n">
+      <c r="CV11" s="10" t="n">
         <v>40.0815217391304</v>
       </c>
-      <c r="CW11" t="n">
+      <c r="CW11" s="10" t="n">
         <v>20.5842391304348</v>
       </c>
-      <c r="CX11" t="n">
+      <c r="CX11" s="10" t="n">
         <v>61.5489130434783</v>
       </c>
-      <c r="CY11" t="n">
+      <c r="CY11" s="8" t="n">
         <v>95.5842391304348</v>
       </c>
-      <c r="CZ11" t="n">
+      <c r="CZ11" s="9" t="n">
         <v>94.429347826087</v>
       </c>
-      <c r="DA11" t="n">
+      <c r="DA11" s="8" t="n">
         <v>91.3722826086957</v>
       </c>
-      <c r="DB11" t="n">
+      <c r="DB11" s="9" t="n">
         <v>96.9429347826087</v>
       </c>
-      <c r="DC11" t="n">
+      <c r="DC11" s="10" t="n">
         <v>40.2853260869565</v>
       </c>
-      <c r="DD11" t="n">
+      <c r="DD11" s="9" t="n">
         <v>93.2744565217391</v>
       </c>
-      <c r="DE11" t="n">
+      <c r="DE11" s="10" t="n">
         <v>73.3695652173913</v>
       </c>
-      <c r="DF11" t="n">
+      <c r="DF11" s="10" t="n">
         <v>94.70108695652171</v>
       </c>
-      <c r="DG11" t="n">
+      <c r="DG11" s="9" t="n">
         <v>95.3125</v>
       </c>
-      <c r="DH11" t="n">
+      <c r="DH11" s="10" t="n">
         <v>94.76902173913039</v>
       </c>
-      <c r="DI11" t="n">
+      <c r="DI11" s="9" t="n">
         <v>89.8777173913043</v>
       </c>
+      <c r="DJ11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Abed Meraim</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>Zakaria</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>20221641@etud.univ-evry.fr</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>9 min 14 s</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr">
         <is>
           <t>7,70</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Vrai; partie 4 : Faux; partie 5 : Faux; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
+      <c r="L12" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="O12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="Q12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Faux</t>
         </is>
       </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="inlineStr">
+      <c r="S12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" t="inlineStr">
+      <c r="U12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="W12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="Y12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AA12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AC12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AE12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AG12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AI12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AK12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="1" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; Combien de girafes vivent en Afrique ?
 ; La quantité de sel dans l’eau a-t-elle une influence sur la température d’ébullition ?</t>
         </is>
       </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
+      <c r="AM12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AO12" s="1" t="inlineStr">
         <is>
           <t>Virgo</t>
         </is>
       </c>
-      <c r="AP12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AP12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas; partie 2 : Faux; partie 3 : Faux; partie 4 : Faux; partie 5 : Je ne sais pas; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Faux; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AS12" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="inlineStr">
+      <c r="AT12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Faux</t>
         </is>
       </c>
-      <c r="AV12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" t="inlineStr">
+      <c r="AV12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY12" t="inlineStr">
+      <c r="AX12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Faux</t>
         </is>
       </c>
-      <c r="AZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="inlineStr">
+      <c r="AZ12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="BB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC12" t="inlineStr">
+      <c r="BB12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE12" t="inlineStr">
+      <c r="BD12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG12" t="inlineStr">
+      <c r="BF12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI12" t="inlineStr">
+      <c r="BH12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK12" t="inlineStr">
+      <c r="BJ12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM12" t="inlineStr">
+      <c r="BL12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="inlineStr">
+      <c r="BN12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ12" t="inlineStr">
+      <c r="BP12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Faux</t>
         </is>
       </c>
-      <c r="BR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS12" t="inlineStr">
+      <c r="BR12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU12" t="inlineStr">
+      <c r="BT12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW12" t="inlineStr">
+      <c r="BV12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY12" t="inlineStr">
+      <c r="BX12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA12" t="n">
+      <c r="BZ12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA12" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="CB12" t="n">
+      <c r="CB12" s="4" t="n">
         <v>25</v>
       </c>
+      <c r="CC12" s="1" t="n"/>
+      <c r="CD12" s="1" t="n"/>
+      <c r="CE12" s="1" t="n"/>
+      <c r="CF12" s="1" t="n"/>
+      <c r="CG12" s="1" t="n"/>
+      <c r="CH12" s="1" t="n"/>
+      <c r="CI12" s="1" t="n"/>
+      <c r="CJ12" s="1" t="n"/>
+      <c r="CK12" s="1" t="n"/>
+      <c r="CL12" s="1" t="n"/>
+      <c r="CM12" s="1" t="n"/>
+      <c r="CN12" s="1" t="n"/>
+      <c r="CO12" s="1" t="n"/>
+      <c r="CP12" s="1" t="n"/>
+      <c r="CQ12" s="1" t="n"/>
+      <c r="CR12" s="1" t="n"/>
+      <c r="CS12" s="1" t="n"/>
+      <c r="CT12" s="1" t="n"/>
+      <c r="CU12" s="1" t="n"/>
+      <c r="CV12" s="1" t="n"/>
+      <c r="CW12" s="1" t="n"/>
+      <c r="CX12" s="1" t="n"/>
+      <c r="CY12" s="1" t="n"/>
+      <c r="CZ12" s="1" t="n"/>
+      <c r="DA12" s="1" t="n"/>
+      <c r="DB12" s="1" t="n"/>
+      <c r="DC12" s="1" t="n"/>
+      <c r="DD12" s="1" t="n"/>
+      <c r="DE12" s="1" t="n"/>
+      <c r="DF12" s="1" t="n"/>
+      <c r="DG12" s="1" t="n"/>
+      <c r="DH12" s="1" t="n"/>
+      <c r="DI12" s="1" t="n"/>
+      <c r="DJ12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="11" t="inlineStr">
         <is>
           <t>Rodolphe</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>rodolphe.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>15 min 32 s</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr">
         <is>
           <t>8,88</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Vrai; partie 2 : Vrai; partie 3 : Vrai; partie 4 : Faux; partie 5 : Vrai; partie 6 : Vrai; partie 7 : Faux; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Vrai</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="O13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="Q13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Faux</t>
         </is>
       </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" t="inlineStr">
+      <c r="S13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Vrai</t>
         </is>
       </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="inlineStr">
+      <c r="U13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="W13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="Y13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="inlineStr">
+      <c r="Y13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AA13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AC13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AE13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AG13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AI13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AK13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="1" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?
 ; Combien de girafes vivent en Afrique ?</t>
         </is>
       </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
+      <c r="AM13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AO13" s="1" t="inlineStr">
         <is>
           <t>virgo</t>
         </is>
       </c>
-      <c r="AP13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AP13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Faux; partie 6 : Vrai; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Faux; partie 12 : Faux; partie 13 : Vrai; partie 14 : Faux; partie 15 : Vrai; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AS13" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" t="inlineStr">
+      <c r="AT13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="inlineStr">
+      <c r="AV13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY13" t="inlineStr">
+      <c r="AX13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA13" t="inlineStr">
+      <c r="AZ13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="BB13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC13" t="inlineStr">
+      <c r="BB13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="inlineStr">
+      <c r="BD13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG13" t="inlineStr">
+      <c r="BF13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI13" t="inlineStr">
+      <c r="BH13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK13" t="inlineStr">
+      <c r="BJ13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM13" t="inlineStr">
+      <c r="BL13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="BN13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO13" t="inlineStr">
+      <c r="BN13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ13" t="inlineStr">
+      <c r="BP13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="BR13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS13" t="inlineStr">
+      <c r="BR13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU13" t="inlineStr">
+      <c r="BT13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Vrai</t>
         </is>
       </c>
-      <c r="BV13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW13" t="inlineStr">
+      <c r="BV13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY13" t="inlineStr">
+      <c r="BX13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY13" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA13" t="n">
+      <c r="BZ13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA13" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="CB13" t="n">
+      <c r="CB13" s="4" t="n">
         <v>28</v>
       </c>
+      <c r="CC13" s="1" t="n"/>
+      <c r="CD13" s="1" t="n"/>
+      <c r="CE13" s="1" t="n"/>
+      <c r="CF13" s="1" t="n"/>
+      <c r="CG13" s="1" t="n"/>
+      <c r="CH13" s="1" t="n"/>
+      <c r="CI13" s="1" t="n"/>
+      <c r="CJ13" s="1" t="n"/>
+      <c r="CK13" s="1" t="n"/>
+      <c r="CL13" s="1" t="n"/>
+      <c r="CM13" s="1" t="n"/>
+      <c r="CN13" s="1" t="n"/>
+      <c r="CO13" s="1" t="n"/>
+      <c r="CP13" s="1" t="n"/>
+      <c r="CQ13" s="1" t="n"/>
+      <c r="CR13" s="1" t="n"/>
+      <c r="CS13" s="1" t="n"/>
+      <c r="CT13" s="1" t="n"/>
+      <c r="CU13" s="1" t="n"/>
+      <c r="CV13" s="1" t="n"/>
+      <c r="CW13" s="1" t="n"/>
+      <c r="CX13" s="1" t="n"/>
+      <c r="CY13" s="1" t="n"/>
+      <c r="CZ13" s="1" t="n"/>
+      <c r="DA13" s="1" t="n"/>
+      <c r="DB13" s="1" t="n"/>
+      <c r="DC13" s="1" t="n"/>
+      <c r="DD13" s="1" t="n"/>
+      <c r="DE13" s="1" t="n"/>
+      <c r="DF13" s="1" t="n"/>
+      <c r="DG13" s="1" t="n"/>
+      <c r="DH13" s="1" t="n"/>
+      <c r="DI13" s="1" t="n"/>
+      <c r="DJ13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>Abi Rizk</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>Christian</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>christian.abi-rizk@universite-paris-saclay.fr</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="7" t="inlineStr">
         <is>
           <t>21 min 49 s</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="1" t="inlineStr">
         <is>
           <t>6,72</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="1" t="inlineStr">
         <is>
           <t>Je suis d’accord pour que mes réponses soient exploitées à des fins de recherche</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Je ne sais pas; partie 3 : Vrai; partie 4 : Vrai; partie 5 : Faux; partie 6 : Vrai; partie 7 : Vrai; partie 8 : Faux; partie 9 : Faux; partie 10 : Faux; partie 11 : Faux; partie 12 : Vrai; partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
+      <c r="L14" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="inlineStr">
+      <c r="O14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Vrai</t>
         </is>
       </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="Q14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="inlineStr">
+      <c r="S14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Faux</t>
         </is>
       </c>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" t="inlineStr">
+      <c r="U14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Vrai</t>
         </is>
       </c>
-      <c r="W14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="W14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Vrai</t>
         </is>
       </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="Y14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Faux</t>
         </is>
       </c>
-      <c r="AA14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AA14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Faux</t>
         </is>
       </c>
-      <c r="AC14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AC14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Faux</t>
         </is>
       </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AE14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Faux</t>
         </is>
       </c>
-      <c r="AG14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AG14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Vrai</t>
         </is>
       </c>
-      <c r="AI14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AI14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Vrai</t>
         </is>
       </c>
-      <c r="AK14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AK14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="1" t="inlineStr">
         <is>
           <t>A quand remonte la vie des dinosaures sur Terre ?</t>
         </is>
       </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
+      <c r="AM14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AO14" s="1" t="inlineStr">
         <is>
           <t>Laser Interferometer Gravitational-Wave Observatory(LIGO)</t>
         </is>
       </c>
-      <c r="AP14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AP14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="2" t="inlineStr">
         <is>
           <t>partie 1 : Faux; partie 2 : Vrai; partie 3 : Faux; partie 4 : Vrai; partie 5 : Je ne sais pas; partie 6 : Faux; partie 7 : Faux; partie 8 : Vrai; partie 9 : Vrai; partie 10 : Vrai; partie 11 : Vrai; partie 12 : Faux; partie 13 : Faux; partie 14 : Faux; partie 15 : Faux; partie 16 : Non; partie 17 : Non</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AS14" s="1" t="inlineStr">
         <is>
           <t>partie 1 : Faux</t>
         </is>
       </c>
-      <c r="AT14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU14" t="inlineStr">
+      <c r="AT14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 2 : Vrai</t>
         </is>
       </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="inlineStr">
+      <c r="AV14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 3 : Faux</t>
         </is>
       </c>
-      <c r="AX14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY14" t="inlineStr">
+      <c r="AX14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 4 : Vrai</t>
         </is>
       </c>
-      <c r="AZ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA14" t="inlineStr">
+      <c r="AZ14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 5 : Je ne sais pas</t>
         </is>
       </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="inlineStr">
+      <c r="BB14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 6 : Faux</t>
         </is>
       </c>
-      <c r="BD14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE14" t="inlineStr">
+      <c r="BD14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 7 : Faux</t>
         </is>
       </c>
-      <c r="BF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG14" t="inlineStr">
+      <c r="BF14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 8 : Vrai</t>
         </is>
       </c>
-      <c r="BH14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI14" t="inlineStr">
+      <c r="BH14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 9 : Vrai</t>
         </is>
       </c>
-      <c r="BJ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK14" t="inlineStr">
+      <c r="BJ14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 10 : Vrai</t>
         </is>
       </c>
-      <c r="BL14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM14" t="inlineStr">
+      <c r="BL14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 11 : Vrai</t>
         </is>
       </c>
-      <c r="BN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="inlineStr">
+      <c r="BN14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 12 : Faux</t>
         </is>
       </c>
-      <c r="BP14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ14" t="inlineStr">
+      <c r="BP14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 13 : Faux</t>
         </is>
       </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS14" t="inlineStr">
+      <c r="BR14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 14 : Faux</t>
         </is>
       </c>
-      <c r="BT14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU14" t="inlineStr">
+      <c r="BT14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 15 : Faux</t>
         </is>
       </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="inlineStr">
+      <c r="BV14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 16 : Non</t>
         </is>
       </c>
-      <c r="BX14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY14" t="inlineStr">
+      <c r="BX14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY14" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> partie 17 : Non</t>
         </is>
       </c>
-      <c r="BZ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA14" t="n">
+      <c r="BZ14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA14" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="CB14" t="n">
+      <c r="CB14" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="CE14" t="inlineStr">
+      <c r="CC14" s="1" t="n"/>
+      <c r="CD14" s="1" t="n"/>
+      <c r="CE14" s="1" t="inlineStr">
         <is>
           <t>8 intermédiaires</t>
         </is>
       </c>
+      <c r="CF14" s="1" t="n"/>
+      <c r="CG14" s="1" t="n"/>
+      <c r="CH14" s="1" t="n"/>
+      <c r="CI14" s="1" t="n"/>
+      <c r="CJ14" s="1" t="n"/>
+      <c r="CK14" s="1" t="n"/>
+      <c r="CL14" s="1" t="n"/>
+      <c r="CM14" s="1" t="n"/>
+      <c r="CN14" s="1" t="n"/>
+      <c r="CO14" s="1" t="n"/>
+      <c r="CP14" s="1" t="n"/>
+      <c r="CQ14" s="1" t="n"/>
+      <c r="CR14" s="1" t="n"/>
+      <c r="CS14" s="1" t="n"/>
+      <c r="CT14" s="1" t="n"/>
+      <c r="CU14" s="1" t="n"/>
+      <c r="CV14" s="1" t="n"/>
+      <c r="CW14" s="1" t="n"/>
+      <c r="CX14" s="1" t="n"/>
+      <c r="CY14" s="1" t="n"/>
+      <c r="CZ14" s="1" t="n"/>
+      <c r="DA14" s="1" t="n"/>
+      <c r="DB14" s="1" t="n"/>
+      <c r="DC14" s="1" t="n"/>
+      <c r="DD14" s="1" t="n"/>
+      <c r="DE14" s="1" t="n"/>
+      <c r="DF14" s="1" t="n"/>
+      <c r="DG14" s="1" t="n"/>
+      <c r="DH14" s="1" t="n"/>
+      <c r="DI14" s="1" t="n"/>
+      <c r="DJ14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S15" s="3" t="n"/>
+      <c r="T15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="U15" s="3" t="n"/>
+      <c r="V15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="W15" s="3" t="n"/>
+      <c r="X15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Y15" s="3" t="n"/>
+      <c r="Z15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA15" s="3" t="n"/>
+      <c r="AB15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC15" s="3" t="n"/>
+      <c r="AD15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AE15" s="3" t="n"/>
+      <c r="AF15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AG15" s="3" t="n"/>
+      <c r="AH15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AI15" s="3" t="n"/>
+      <c r="AJ15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AK15" s="3" t="n"/>
+      <c r="AL15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AM15" s="4" t="n"/>
+      <c r="AN15" s="3" t="n"/>
+      <c r="AO15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AP15" s="3" t="n"/>
+      <c r="AQ15" s="3" t="n"/>
+      <c r="AR15" s="3" t="n"/>
+      <c r="AS15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AT15" s="3" t="n"/>
+      <c r="AU15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AV15" s="3" t="n"/>
+      <c r="AW15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AX15" s="3" t="n"/>
+      <c r="AY15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AZ15" s="3" t="n"/>
+      <c r="BA15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BB15" s="3" t="n"/>
+      <c r="BC15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BD15" s="3" t="n"/>
+      <c r="BE15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BF15" s="3" t="n"/>
+      <c r="BG15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BH15" s="3" t="n"/>
+      <c r="BI15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BJ15" s="3" t="n"/>
+      <c r="BK15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BL15" s="3" t="n"/>
+      <c r="BM15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BN15" s="3" t="n"/>
+      <c r="BO15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BP15" s="3" t="n"/>
+      <c r="BQ15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BR15" s="3" t="n"/>
+      <c r="BS15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BT15" s="3" t="n"/>
+      <c r="BU15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BV15" s="3" t="n"/>
+      <c r="BW15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BX15" s="3" t="n"/>
+      <c r="BY15" s="3" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="BZ15" s="4" t="n"/>
+      <c r="CA15" s="1" t="n"/>
+      <c r="CB15" s="1" t="n"/>
+      <c r="CC15" s="1" t="n"/>
+      <c r="CD15" s="1" t="n"/>
+      <c r="CE15" s="1" t="n"/>
+      <c r="CF15" s="1" t="n"/>
+      <c r="CG15" s="1" t="n"/>
+      <c r="CH15" s="1" t="n"/>
+      <c r="CI15" s="1" t="n"/>
+      <c r="CJ15" s="1" t="n"/>
+      <c r="CK15" s="1" t="n"/>
+      <c r="CL15" s="1" t="n"/>
+      <c r="CM15" s="1" t="n"/>
+      <c r="CN15" s="1" t="n"/>
+      <c r="CO15" s="1" t="n"/>
+      <c r="CP15" s="1" t="n"/>
+      <c r="CQ15" s="1" t="n"/>
+      <c r="CR15" s="1" t="n"/>
+      <c r="CS15" s="1" t="n"/>
+      <c r="CT15" s="1" t="n"/>
+      <c r="CU15" s="1" t="n"/>
+      <c r="CV15" s="1" t="n"/>
+      <c r="CW15" s="1" t="n"/>
+      <c r="CX15" s="1" t="n"/>
+      <c r="CY15" s="1" t="n"/>
+      <c r="CZ15" s="1" t="n"/>
+      <c r="DA15" s="1" t="n"/>
+      <c r="DB15" s="1" t="n"/>
+      <c r="DC15" s="1" t="n"/>
+      <c r="DD15" s="1" t="n"/>
+      <c r="DE15" s="1" t="n"/>
+      <c r="DF15" s="1" t="n"/>
+      <c r="DG15" s="1" t="n"/>
+      <c r="DH15" s="1" t="n"/>
+      <c r="DI15" s="1" t="n"/>
+      <c r="DJ15" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test !!!!</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Il doit y avoir des notes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>zdzd</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>zdzd</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fichiers_xls/test_copie.xlsx
+++ b/fichiers_xls/test_copie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6037,7 +6037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6058,11 +6058,17 @@
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="1" t="n"/>
       <c r="C2" s="1" t="n"/>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -6072,11 +6078,17 @@
           <t>Il doit y avoir des notes.</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -6086,6 +6098,9 @@
         </is>
       </c>
       <c r="C6" s="1" t="n"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -6095,6 +6110,44 @@
         </is>
       </c>
       <c r="C7" s="1" t="n"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
